--- a/gurobi_log/统计_.xlsx
+++ b/gurobi_log/统计_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\gurobi_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B574249F-3259-4D4D-896C-EF45C762EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8A869-C3EC-4621-8382-1A2074B4F70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,54 @@
   </si>
   <si>
     <t>最优解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_lambda_solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_lambda_solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimal_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seg_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nei_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devi_max_seg_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devi_max_nei_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devi_de_max_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devi_com_max_lambda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -119,6 +170,1730 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>lambdas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> caculated by different methods</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>optimal_lambda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C14A-40CC-BAF2-1390E1BD984C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>seg_lambda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C14A-40CC-BAF2-1390E1BD984C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>nei_lambda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C14A-40CC-BAF2-1390E1BD984C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>de_lambda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C14A-40CC-BAF2-1390E1BD984C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>com_lambda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C14A-40CC-BAF2-1390E1BD984C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>max_distance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C14A-40CC-BAF2-1390E1BD984C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1447616847"/>
+        <c:axId val="1447617327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1447616847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>instance(5-15)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447617327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1447617327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>lambda</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447616847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72323</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>136722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>916264</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>119210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CED480-CCB5-1CCD-6C5E-F48A5E7F1203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,281 +2159,1360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="3" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="13.375" customWidth="1"/>
+    <col min="17" max="17" width="17.25" customWidth="1"/>
+    <col min="18" max="19" width="13.375" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="13.375" customWidth="1"/>
+    <col min="22" max="22" width="19.25" customWidth="1"/>
+    <col min="23" max="24" width="13.375" customWidth="1"/>
+    <col min="25" max="25" width="27.125" customWidth="1"/>
+    <col min="26" max="27" width="13.375" customWidth="1"/>
+    <col min="30" max="30" width="12.625" customWidth="1"/>
+    <col min="31" max="31" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>202</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <v>202</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>72</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(AA2-I2)/AA2</f>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
         <v>202</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>72</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(AA2-N2)/AA2</f>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1">
         <v>202</v>
       </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>72</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(AA2-S2)/AA2</f>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
+        <v>202</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>(AA2-X2)/AA2</f>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>202</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>204</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>223</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>87</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J17" si="0">(AA3-I3)/AA3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>223</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>87</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O17" si="1">(AA3-N3)/AA3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1">
         <v>223</v>
       </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>70</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T17" si="2">(AA3-S3)/AA3</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1">
+        <v>223</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y17" si="3">(AA3-X3)/AA3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1">
+        <v>90</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>223</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>258</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>260</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>89</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
         <v>260</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>89</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
         <v>260</v>
       </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>70</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24731182795698925</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
+        <v>260</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>89</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1">
+        <v>93</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>260</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>210</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>246</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>102</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11304347826086956</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
         <v>246</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>102</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11304347826086956</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
         <v>246</v>
       </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>70</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>246</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11304347826086956</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1">
+        <v>115</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>246</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>296</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>307</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>111</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4782608695652174E-2</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
         <v>307</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>111</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4782608695652174E-2</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
         <v>307</v>
       </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>73</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36521739130434783</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
+        <v>307</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>111</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4782608695652174E-2</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1">
+        <v>115</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>307</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>309</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>321</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
         <v>321</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>100</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
         <v>321</v>
       </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>67</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33663366336633666</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
+        <v>321</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1">
+        <v>101</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>321</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>318</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>318</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>107</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3220338983050849E-2</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
         <v>318</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>116</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
         <v>318</v>
       </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>75</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36440677966101692</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
+        <v>318</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>117</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4745762711864406E-3</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1">
+        <v>118</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>318</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>369</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>391</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>113</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
         <v>391</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>124</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
         <v>391</v>
       </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>87</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
+        <v>391</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>124</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1">
+        <v>125</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>391</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>365</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>375</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>112</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
         <v>375</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>112</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
         <v>375</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>86</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
+        <v>375</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>112</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1">
+        <v>120</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>302</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>307</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>83</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>306</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>107</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
+        <v>306</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>51</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53636363636363638</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>306</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>107</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7272727272727271E-2</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1">
+        <v>110</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>318</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>320</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>95</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>320</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>98</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <v>320</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>68</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31313131313131315</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>320</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>303</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>304</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>82</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>304</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>103</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.8039215686274508E-3</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
+        <v>304</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>69</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>304</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>103</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.8039215686274508E-3</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1">
+        <v>102</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>369</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>403</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>102</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>402</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>108</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
+        <v>403</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>81</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25688073394495414</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1">
+        <v>402</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>108</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1">
+        <v>109</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>367</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>378</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>94</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12149532710280374</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>378</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>106</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3457943925233638E-3</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
+        <v>378</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>57</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46728971962616822</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
+        <v>378</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>106</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3457943925233638E-3</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1">
+        <v>107</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>331</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>345</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>89</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2608695652173912E-2</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>345</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>91</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
+        <v>345</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>67</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27173913043478259</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
+        <v>345</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>91</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1">
+        <v>92</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>341</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>360</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>91</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14150943396226415</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <v>360</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>102</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
+        <v>360</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>66</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37735849056603776</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
+        <v>360</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1">
+        <v>106</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gurobi_log/统计_.xlsx
+++ b/gurobi_log/统计_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\gurobi_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\gurobi_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8A869-C3EC-4621-8382-1A2074B4F70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C72F37-BA15-46DF-AD9B-639A27F48106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,8 +372,127 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>de_lambda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C14A-40CC-BAF2-1390E1BD984C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>seg_lambda</c:v>
           </c:tx>
@@ -492,7 +611,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>nei_lambda</c:v>
           </c:tx>
@@ -606,125 +725,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C14A-40CC-BAF2-1390E1BD984C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>de_lambda</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$S$2:$S$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C14A-40CC-BAF2-1390E1BD984C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2161,34 +2161,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="6" width="14.375" customWidth="1"/>
+    <col min="3" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="27.25" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
-    <col min="13" max="14" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="14" width="13.33203125" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
     <col min="17" max="17" width="17.25" customWidth="1"/>
-    <col min="18" max="19" width="13.375" customWidth="1"/>
+    <col min="18" max="19" width="13.33203125" customWidth="1"/>
     <col min="20" max="20" width="20.5" customWidth="1"/>
-    <col min="21" max="21" width="13.375" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="19.25" customWidth="1"/>
-    <col min="23" max="24" width="13.375" customWidth="1"/>
-    <col min="25" max="25" width="27.125" customWidth="1"/>
-    <col min="26" max="27" width="13.375" customWidth="1"/>
-    <col min="30" max="30" width="12.625" customWidth="1"/>
-    <col min="31" max="31" width="17.625" customWidth="1"/>
+    <col min="23" max="24" width="13.33203125" customWidth="1"/>
+    <col min="25" max="25" width="27.08203125" customWidth="1"/>
+    <col min="26" max="27" width="13.33203125" customWidth="1"/>
+    <col min="30" max="30" width="12.58203125" customWidth="1"/>
+    <col min="31" max="31" width="17.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>13</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20</v>
       </c>
